--- a/legado/FinScore_Assertif_Empresas FEV-2025.xlsx
+++ b/legado/FinScore_Assertif_Empresas FEV-2025.xlsx
@@ -859,7 +859,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F549CC4-D3C4-0A40-8797-047FCE820CFF}">
   <dimension ref="A1:Q75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B29" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
